--- a/DataModel/Data/CountryPops.xlsx
+++ b/DataModel/Data/CountryPops.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gini @ lynda.com\Desktop\Exercise Files\Chapter 03\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7620" activeTab="1"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="Population Growth Rate" sheetId="2" r:id="rId1"/>
     <sheet name="Population by Country" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="993">
   <si>
     <t>Rank</t>
   </si>
@@ -39,13 +34,7 @@
     <t>Libya</t>
   </si>
   <si>
-    <t>4.85</t>
-  </si>
-  <si>
     <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>4.38</t>
   </si>
   <si>
     <t>South Sudan</t>
@@ -3015,7 +3004,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3045,7 +3034,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3063,6 +3052,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3071,6 +3067,14 @@
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="right" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3097,14 +3101,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3307,23 +3303,23 @@
   <autoFilter ref="A1:C234"/>
   <tableColumns count="3">
     <tableColumn id="5" name="Rank" dataDxfId="10"/>
-    <tableColumn id="6" name="Country" dataDxfId="9"/>
-    <tableColumn id="7" name="Population growth rate (%)" dataDxfId="8"/>
+    <tableColumn id="6" name="Country" dataDxfId="2"/>
+    <tableColumn id="7" name="Population growth rate (%)" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleQueryResult" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Countries___List_of_countries_by_population" displayName="Countries___List_of_countries_by_population" ref="A1:F245" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Countries___List_of_countries_by_population" displayName="Countries___List_of_countries_by_population" ref="A1:F245" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:F245"/>
   <tableColumns count="6">
-    <tableColumn id="8" name="Rank" dataDxfId="5"/>
-    <tableColumn id="9" name="Country (or dependent territory)" dataDxfId="4"/>
-    <tableColumn id="10" name="Population" dataDxfId="3"/>
-    <tableColumn id="11" name="Date" dataDxfId="2"/>
+    <tableColumn id="8" name="Rank" dataDxfId="7"/>
+    <tableColumn id="9" name="Country (or dependent territory)" dataDxfId="6"/>
+    <tableColumn id="10" name="Population" dataDxfId="5"/>
+    <tableColumn id="11" name="Date" dataDxfId="4"/>
     <tableColumn id="12" name="% of world population" dataDxfId="0"/>
-    <tableColumn id="13" name="Source" dataDxfId="1"/>
+    <tableColumn id="13" name="Source" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleQueryResult" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3584,7 +3580,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3595,14 +3591,14 @@
   <dimension ref="A1:C234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3612,7 +3608,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3623,8 +3619,8 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
+      <c r="C2" s="8">
+        <v>4.8499999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3632,10 +3628,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="8">
+        <v>4.38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3643,10 +3639,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3654,10 +3650,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3665,10 +3661,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3676,10 +3672,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3687,10 +3683,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3698,10 +3694,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3709,10 +3705,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3720,10 +3716,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3731,10 +3727,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3742,10 +3738,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3753,10 +3749,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3764,10 +3760,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3775,10 +3771,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3786,10 +3782,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3797,10 +3793,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3808,10 +3804,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3819,10 +3815,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3830,10 +3826,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3841,10 +3837,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3852,10 +3848,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3863,10 +3859,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3874,10 +3870,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -3885,10 +3881,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -3896,10 +3892,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3907,10 +3903,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3918,10 +3914,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3929,10 +3925,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3940,10 +3936,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -3951,10 +3947,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3962,10 +3958,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -3973,10 +3969,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -3984,10 +3980,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3995,10 +3991,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -4006,10 +4002,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -4017,10 +4013,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -4028,10 +4024,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -4039,10 +4035,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="2" t="s">
         <v>72</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -4050,10 +4046,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -4061,10 +4057,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -4072,10 +4068,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -4083,10 +4079,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -4094,10 +4090,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -4105,10 +4101,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -4116,10 +4112,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -4127,10 +4123,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -4138,10 +4134,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -4149,10 +4145,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -4160,10 +4156,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -4171,10 +4167,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -4182,10 +4178,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -4193,10 +4189,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -4204,10 +4200,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -4215,10 +4211,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -4226,10 +4222,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -4237,10 +4233,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -4248,10 +4244,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -4259,10 +4255,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -4270,10 +4266,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -4281,10 +4277,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -4292,10 +4288,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -4303,10 +4299,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -4314,10 +4310,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -4325,10 +4321,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -4336,10 +4332,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -4347,10 +4343,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -4358,10 +4354,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -4369,10 +4365,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C70" s="2" t="s">
         <v>125</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -4380,10 +4376,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -4391,10 +4387,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -4402,10 +4398,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -4413,10 +4409,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C74" s="2" t="s">
         <v>130</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -4424,10 +4420,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -4435,10 +4431,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -4446,10 +4442,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -4457,10 +4453,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -4468,10 +4464,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -4479,10 +4475,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -4490,10 +4486,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -4501,10 +4497,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C82" s="2" t="s">
         <v>142</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -4512,10 +4508,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -4523,10 +4519,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -4534,10 +4530,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -4545,10 +4541,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -4556,10 +4552,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -4567,10 +4563,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -4578,10 +4574,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -4589,10 +4585,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -4600,10 +4596,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -4611,10 +4607,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -4622,10 +4618,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -4633,10 +4629,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -4644,10 +4640,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -4655,10 +4651,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -4666,10 +4662,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -4677,10 +4673,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -4688,10 +4684,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -4699,10 +4695,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -4710,10 +4706,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -4721,10 +4717,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -4732,10 +4728,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -4743,10 +4739,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -4754,10 +4750,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C105" s="2" t="s">
         <v>183</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -4765,10 +4761,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -4776,10 +4772,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -4787,10 +4783,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -4798,10 +4794,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -4809,10 +4805,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -4820,10 +4816,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -4831,10 +4827,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -4842,10 +4838,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -4853,10 +4849,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -4864,10 +4860,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -4875,10 +4871,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -4886,10 +4882,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -4897,10 +4893,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -4908,10 +4904,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -4919,10 +4915,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -4930,10 +4926,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -4941,10 +4937,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -4952,10 +4948,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -4963,10 +4959,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -4974,10 +4970,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -4985,10 +4981,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -4996,10 +4992,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -5007,10 +5003,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -5018,10 +5014,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -5029,10 +5025,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -5040,10 +5036,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -5051,10 +5047,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C132" s="2" t="s">
         <v>230</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -5062,10 +5058,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -5073,10 +5069,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -5084,10 +5080,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -5095,10 +5091,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -5106,10 +5102,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -5117,10 +5113,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -5128,10 +5124,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -5139,10 +5135,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -5150,10 +5146,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -5161,10 +5157,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -5172,10 +5168,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -5183,10 +5179,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -5194,10 +5190,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -5205,10 +5201,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -5216,10 +5212,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -5227,10 +5223,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -5238,10 +5234,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -5249,10 +5245,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -5260,10 +5256,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -5271,10 +5267,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -5282,10 +5278,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -5293,10 +5289,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -5304,10 +5300,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -5315,10 +5311,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -5326,10 +5322,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -5337,10 +5333,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -5348,10 +5344,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -5359,10 +5355,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -5370,10 +5366,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -5381,10 +5377,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -5392,10 +5388,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -5403,10 +5399,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -5414,10 +5410,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C165" s="2" t="s">
         <v>289</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -5425,10 +5421,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -5436,10 +5432,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -5447,10 +5443,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -5458,10 +5454,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -5469,10 +5465,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -5480,10 +5476,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -5491,10 +5487,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -5502,10 +5498,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -5513,10 +5509,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -5524,10 +5520,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -5535,10 +5531,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -5546,10 +5542,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -5557,10 +5553,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C178" s="2" t="s">
         <v>310</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -5568,10 +5564,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -5579,10 +5575,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -5590,10 +5586,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -5601,10 +5597,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -5612,10 +5608,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -5623,10 +5619,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -5634,10 +5630,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C185" s="2" t="s">
         <v>320</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -5645,10 +5641,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -5656,10 +5652,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -5667,10 +5663,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -5678,10 +5674,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -5689,10 +5685,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -5700,10 +5696,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -5711,10 +5707,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -5722,10 +5718,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -5733,10 +5729,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -5744,10 +5740,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -5755,10 +5751,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -5766,10 +5762,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C197" s="2" t="s">
         <v>340</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -5777,10 +5773,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -5788,10 +5784,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -5799,10 +5795,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -5810,10 +5806,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -5821,10 +5817,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -5832,10 +5828,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -5843,10 +5839,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -5854,10 +5850,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -5865,10 +5861,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -5876,10 +5872,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -5887,10 +5883,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -5898,10 +5894,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -5909,10 +5905,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -5920,10 +5916,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -5931,10 +5927,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -5942,10 +5938,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -5953,10 +5949,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -5964,10 +5960,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -5975,10 +5971,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -5986,10 +5982,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -5997,10 +5993,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -6008,10 +6004,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -6019,10 +6015,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -6030,10 +6026,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -6041,10 +6037,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -6052,10 +6048,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -6063,10 +6059,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -6074,10 +6070,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -6085,10 +6081,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -6096,10 +6092,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -6107,10 +6103,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
+      </c>
+      <c r="C228" s="8" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -6118,10 +6114,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -6129,10 +6125,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -6140,10 +6136,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -6151,10 +6147,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -6162,10 +6158,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -6173,16 +6169,17 @@
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6192,7 +6189,7 @@
   <dimension ref="A1:F245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6210,2164 +6207,2164 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>414</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C2" s="1">
         <v>1362190000</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>419</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C3" s="1">
         <v>1238990000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C4" s="1">
         <v>317466000</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C5" s="1">
         <v>249866000</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C6" s="1">
         <v>201032714</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C7" s="1">
         <v>185347000</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1">
         <v>173615000</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C9" s="1">
         <v>152518015</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C10" s="1">
         <v>143600000</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C11" s="1">
         <v>127270000</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C12" s="1">
         <v>118395054</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C13" s="1">
         <v>98964000</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C14" s="1">
         <v>90388000</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1">
         <v>86613986</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C16" s="1">
         <v>83661000</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C17" s="1">
         <v>80586000</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C18" s="1">
         <v>77137000</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C19" s="1">
         <v>75627384</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="1">
         <v>67514000</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C21" s="1">
         <v>65926261</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C22" s="1">
         <v>65860000</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C23" s="1">
         <v>63705000</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C24" s="1">
         <v>59901141</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C25" s="1">
         <v>53259000</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C26" s="1">
         <v>52981991</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C27" s="1">
         <v>50219669</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C28" s="1">
         <v>47416000</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C29" s="1">
         <v>46704314</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C30" s="1">
         <v>45447010</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1">
         <v>44928923</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C32" s="1">
         <v>44354000</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C33" s="1">
         <v>40117096</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C34" s="1">
         <v>38700000</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C35" s="1">
         <v>38502396</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C36" s="1">
         <v>37964000</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1">
         <v>35357000</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C38" s="1">
         <v>35295770</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C39" s="1">
         <v>34035000</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C40" s="1">
         <v>33141900</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C41" s="1">
         <v>30475144</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C42" s="1">
         <v>30183400</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C43" s="1">
         <v>29994272</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C44" s="1">
         <v>29962000</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C45" s="1">
         <v>28946101</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C46" s="1">
         <v>26494504</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C47" s="1">
         <v>25500100</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C48" s="1">
         <v>25235000</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C49" s="1">
         <v>24895000</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C50" s="1">
         <v>24658823</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C51" s="1">
         <v>23700715</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C52" s="1">
         <v>23367320</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C53" s="1">
         <v>23346745</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C54" s="1">
         <v>23202000</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C55" s="1">
         <v>21898000</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C56" s="1">
         <v>21263403</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C57" s="1">
         <v>20609294</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1">
         <v>20386799</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C59" s="1">
         <v>20277597</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>557</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C60" s="1">
         <v>20121641</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C61" s="1">
         <v>17322796</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C62" s="1">
         <v>17146000</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C63" s="1">
         <v>17129076</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C64" s="1">
         <v>16834200</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C65" s="1">
         <v>16634603</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>570</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C66" s="1">
         <v>16363000</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C67" s="1">
         <v>15656100</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C68" s="1">
         <v>15438384</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C69" s="1">
         <v>15302000</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C70" s="1">
         <v>15135000</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C71" s="1">
         <v>13567338</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C72" s="1">
         <v>13092666</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C73" s="1">
         <v>12973808</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C74" s="1">
         <v>12825000</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C75" s="1">
         <v>11296000</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C76" s="1">
         <v>11180320</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C77" s="1">
         <v>11167325</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C78" s="1">
         <v>10833431</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C79" s="1">
         <v>10824200</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C80" s="1">
         <v>10815197</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C81" s="1">
         <v>10487289</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C82" s="1">
         <v>10537222</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C83" s="1">
         <v>10513800</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C84" s="1">
         <v>10496000</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C85" s="1">
         <v>10413211</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C86" s="1">
         <v>10323000</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C87" s="1">
         <v>10163000</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C88" s="1">
         <v>10027254</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C89" s="1">
         <v>9906000</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C90" s="1">
         <v>9639741</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C91" s="1">
         <v>9467200</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C92" s="1">
         <v>9445281</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C93" s="1">
         <v>9235100</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C94" s="1">
         <v>8555072</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C95" s="1">
         <v>8501502</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E95" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C96" s="1">
         <v>8264070</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C97" s="1">
         <v>8132000</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C98" s="1">
         <v>8112200</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C99" s="1">
         <v>8104000</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C100" s="1">
         <v>7282041</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C101" s="1">
         <v>7184000</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C102" s="1">
         <v>7181505</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C103" s="1">
         <v>7059653</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>638</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C104" s="1">
         <v>6783374</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C105" s="1">
         <v>6580800</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C106" s="1">
         <v>6535100</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C107" s="1">
         <v>6340000</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C108" s="1">
         <v>6333000</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>3</v>
@@ -8376,2733 +8373,2733 @@
         <v>6202000</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C110" s="1">
         <v>6191155</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C111" s="1">
         <v>6190280</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C112" s="1">
         <v>6071045</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C113" s="1">
         <v>5747000</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C114" s="1">
         <v>5623501</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C115" s="1">
         <v>5449657</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C116" s="1">
         <v>5412008</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C117" s="1">
         <v>5399200</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C118" s="1">
         <v>5240000</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="F118" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C119" s="1">
         <v>5096300</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C120" s="1">
         <v>4822000</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C121" s="1">
         <v>4667096</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C122" s="1">
         <v>4616000</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>674</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C123" s="1">
         <v>4593100</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C124" s="1">
         <v>4483800</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C125" s="1">
         <v>4506730</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C126" s="1">
         <v>4448000</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>683</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C127" s="1">
         <v>4420549</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C128" s="1">
         <v>4294000</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>687</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C129" s="1">
         <v>4290612</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C130" s="1">
         <v>3929000</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C131" s="1">
         <v>3791622</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C132" s="1">
         <v>3615086</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C133" s="1">
         <v>3582054</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C134" s="1">
         <v>3559500</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C135" s="1">
         <v>3461041</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C136" s="1">
         <v>3405813</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C137" s="1">
         <v>3286314</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C138" s="1">
         <v>3017000</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C139" s="1">
         <v>2945951</v>
       </c>
       <c r="D139" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="F139" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C140" s="1">
         <v>2821977</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C141" s="1">
         <v>2754685</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C142" s="1">
         <v>2711476</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C143" s="1">
         <v>2113077</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C144" s="1">
         <v>2074000</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="F144" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C145" s="1">
         <v>2068050</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C146" s="1">
         <v>2062294</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C147" s="1">
         <v>2061281</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C148" s="1">
         <v>2024904</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C149" s="1">
         <v>2006900</v>
       </c>
       <c r="D149" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="F149" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C150" s="1">
         <v>1849000</v>
       </c>
       <c r="D150" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="F150" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C151" s="1">
         <v>1815606</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C152" s="1">
         <v>1704000</v>
       </c>
       <c r="D152" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="F152" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C153" s="1">
         <v>1672000</v>
       </c>
       <c r="D153" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="F153" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C154" s="1">
         <v>1622000</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C155" s="1">
         <v>1328019</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C156" s="1">
         <v>1286540</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C157" s="1">
         <v>1257900</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C158" s="1">
         <v>1250000</v>
       </c>
       <c r="D158" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="F158" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C159" s="1">
         <v>1234571</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C160" s="1">
         <v>1066409</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C161" s="1">
         <v>873000</v>
       </c>
       <c r="D161" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="F161" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E161" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C162" s="1">
         <v>865878</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C163" s="1">
         <v>858038</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C164" s="1">
         <v>821136</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C165" s="1">
         <v>784894</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C166" s="1">
         <v>743797</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C167" s="1">
         <v>742970</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C168" s="1">
         <v>620029</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C169" s="1">
         <v>598200</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C170" s="1">
         <v>581344</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C171" s="1">
         <v>567000</v>
       </c>
       <c r="D171" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="F171" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E171" s="5" t="s">
-        <v>780</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C172" s="1">
         <v>537000</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C173" s="1">
         <v>534189</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C174" s="1">
         <v>491875</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C175" s="1">
         <v>416055</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C176" s="1">
         <v>403355</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C177" s="1">
         <v>394173</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C178" s="1">
         <v>393162</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C179" s="1">
         <v>351461</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C180" s="1">
         <v>325010</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C181" s="1">
         <v>317280</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C182" s="1">
         <v>312971</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C183" s="1">
         <v>294906</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C184" s="1">
         <v>285000</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C185" s="1">
         <v>268270</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C186" s="1">
         <v>264652</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C187" s="1">
         <v>258958</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C188" s="1">
         <v>229040</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C189" s="1">
         <v>212600</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C190" s="1">
         <v>187820</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C191" s="1">
         <v>187356</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C192" s="1">
         <v>180000</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C193" s="1">
         <v>159358</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C194" s="1">
         <v>150563</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C195" s="1">
         <v>109000</v>
       </c>
       <c r="D195" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="F195" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E195" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C196" s="1">
         <v>106461</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C197" s="1">
         <v>106405</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C198" s="1">
         <v>103328</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C199" s="1">
         <v>103036</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C200" s="1">
         <v>101484</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C201" s="1">
         <v>101351</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C202" s="1">
         <v>97857</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C203" s="1">
         <v>90945</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C204" s="1">
         <v>86295</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C205" s="1">
         <v>84497</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C206" s="1">
         <v>76246</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C207" s="1">
         <v>71293</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C208" s="1">
         <v>64237</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C209" s="1">
         <v>63085</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C210" s="1">
         <v>56370</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C211" s="1">
         <v>56086</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C212" s="1">
         <v>55519</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C213" s="1">
         <v>55456</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C214" s="1">
         <v>54000</v>
       </c>
       <c r="D214" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="F214" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E214" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C215" s="1">
         <v>53883</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C216" s="1">
         <v>48159</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C217" s="1">
         <v>37429</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C218" s="1">
         <v>36979</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C219" s="1">
         <v>36942</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E219" s="5" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C220" s="1">
         <v>36136</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C221" s="1">
         <v>33536</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C222" s="1">
         <v>31458</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C223" s="1">
         <v>30001</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C224" s="1">
         <v>29537</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C225" s="1">
         <v>28502</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C226" s="1">
         <v>23296</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C227" s="1">
         <v>20901</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C228" s="1">
         <v>14974</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C229" s="1">
         <v>13452</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C230" s="1">
         <v>13135</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C231" s="1">
         <v>11323</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C232" s="1">
         <v>9945</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C233" s="1">
         <v>8938</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C234" s="1">
         <v>6081</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C235" s="1">
         <v>4922</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C236" s="1">
         <v>4000</v>
       </c>
       <c r="D236" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="F236" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E236" s="5" t="s">
-        <v>961</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C237" s="1">
         <v>2655</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C238" s="1">
         <v>2563</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C239" s="1">
         <v>2302</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C240" s="1">
         <v>2072</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C241" s="1">
         <v>1613</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C242" s="1">
         <v>1411</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C243" s="1">
         <v>839</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C244" s="1">
         <v>550</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C245" s="1">
         <v>56</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
